--- a/flows/CCRV_fund_flow_data.xlsx
+++ b/flows/CCRV_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B877"/>
+  <dimension ref="A1:B894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9205,6 +9205,176 @@
         <v>1.01606</v>
       </c>
     </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>1.01919</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>7.098665</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
